--- a/Bin_data/Turkish/Turkish44.xlsx
+++ b/Bin_data/Turkish/Turkish44.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD31"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="1">
-        <v>0.6599999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.01950290424</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>7.256422039799999</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="AT22">
-        <v>0.17686036344</v>
+        <v>0</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -4102,13 +4102,13 @@
         <v>0</v>
       </c>
       <c r="AY22">
-        <v>0.06429755088000001</v>
+        <v>0</v>
       </c>
       <c r="AZ22">
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>0.05762833764000001</v>
+        <v>0</v>
       </c>
       <c r="BB22">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="23" spans="1:56">
       <c r="A23" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.07236973464</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.01950290424</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>7.256422039799999</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -4257,28 +4257,28 @@
         <v>0</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>0.17686036344</v>
       </c>
       <c r="AU23">
         <v>0</v>
       </c>
       <c r="AV23">
-        <v>0.71404356384</v>
+        <v>0</v>
       </c>
       <c r="AW23">
-        <v>0.59889774984</v>
+        <v>0</v>
       </c>
       <c r="AX23">
-        <v>0.71561885616</v>
+        <v>0</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>0.06429755088000001</v>
       </c>
       <c r="AZ23">
-        <v>0.08891771688</v>
+        <v>0</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>0.05762833764000001</v>
       </c>
       <c r="BB23">
         <v>0</v>
@@ -4292,16 +4292,16 @@
     </row>
     <row r="24" spans="1:56">
       <c r="A24" s="1">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B24">
-        <v>0.31941972684</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06546552204</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.12383005824</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.07236973464</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -4433,19 +4433,19 @@
         <v>0</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>0.71404356384</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>0.59889774984</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>0.71561885616</v>
       </c>
       <c r="AY24">
         <v>0</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>0.08891771688</v>
       </c>
       <c r="BA24">
         <v>0</v>
@@ -4462,16 +4462,16 @@
     </row>
     <row r="25" spans="1:56">
       <c r="A25" s="1">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="B25">
-        <v>0.167626515</v>
+        <v>0.31941972684</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.06546552204</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.12383005824</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4501,40 +4501,40 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.32708851716</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1.54208947728</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.65178643584</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>2.95698992124</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>3.6729066756</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>3.78302213136</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1.64225629488</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>1.33721860632</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>0.50083181988</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>0.29945164092</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="26" spans="1:56">
       <c r="A26" s="1">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.167626515</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4671,40 +4671,40 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>0.32708851716</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.54208947728</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.65178643584</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>2.95698992124</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>3.6729066756</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>3.78302213136</v>
       </c>
       <c r="U26">
-        <v>1.02953877924</v>
+        <v>1.64225629488</v>
       </c>
       <c r="V26">
-        <v>0.6095631692400001</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0.76670549316</v>
+        <v>1.33721860632</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>0.50083181988</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>0.29945164092</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="AY26">
-        <v>0.27671772096</v>
+        <v>0</v>
       </c>
       <c r="AZ26">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="BC26">
-        <v>0.2396633892</v>
+        <v>0</v>
       </c>
       <c r="BD26">
         <v>0</v>
@@ -4802,16 +4802,16 @@
     </row>
     <row r="27" spans="1:56">
       <c r="A27" s="1">
-        <v>0.8099999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="B27">
-        <v>0.15511412676</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0.15555253776</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0.10202689728</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.04233368532</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4862,13 +4862,13 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.02953877924</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>0.6095631692400001</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>0.76670549316</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -4949,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="AX27">
-        <v>0.2932731714</v>
+        <v>0</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>0.27671772096</v>
       </c>
       <c r="AZ27">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>0.2396633892</v>
       </c>
       <c r="BD27">
         <v>0</v>
@@ -4972,16 +4972,16 @@
     </row>
     <row r="28" spans="1:56">
       <c r="A28" s="1">
-        <v>0.84</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.15511412676</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.15555253776</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.10202689728</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.347799606</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.04233368532</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.26796709272</v>
+        <v>0</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -5104,13 +5104,13 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.86396889868</v>
+        <v>0</v>
       </c>
       <c r="AT28">
-        <v>0.43150557036</v>
+        <v>0</v>
       </c>
       <c r="AU28">
-        <v>1.30220514</v>
+        <v>0</v>
       </c>
       <c r="AV28">
         <v>0</v>
@@ -5119,13 +5119,13 @@
         <v>0</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>0.2932731714</v>
       </c>
       <c r="AY28">
         <v>0</v>
       </c>
       <c r="AZ28">
-        <v>1.9854668856</v>
+        <v>0</v>
       </c>
       <c r="BA28">
         <v>0</v>
@@ -5142,13 +5142,13 @@
     </row>
     <row r="29" spans="1:56">
       <c r="A29" s="1">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.06585099179999999</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5157,19 +5157,19 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2.79182514624</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.347799606</v>
       </c>
       <c r="H29">
-        <v>0.38913703344</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0.4168284552</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0.55138318056</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1.71505724892</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -5187,34 +5187,34 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0.27978554688</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.2286090702</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>0.14645012964</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>0.2648090952</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>0.15010340712</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>0.2124351618</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>0.15369461556</v>
+        <v>0</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0.19320332976</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>0.0863459454</v>
+        <v>0</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>0.26796709272</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -5268,162 +5268,162 @@
         <v>0</v>
       </c>
       <c r="AQ29">
-        <v>0.7347926022000001</v>
+        <v>0</v>
       </c>
       <c r="AR29">
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.58348941632</v>
+        <v>2.86396889868</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>0.43150557036</v>
       </c>
       <c r="AU29">
-        <v>5.32742061012</v>
+        <v>1.30220514</v>
       </c>
       <c r="AV29">
-        <v>1.85582728692</v>
+        <v>0</v>
       </c>
       <c r="AW29">
-        <v>0.9955349029199999</v>
+        <v>0</v>
       </c>
       <c r="AX29">
-        <v>0.91706187864</v>
+        <v>0</v>
       </c>
       <c r="AY29">
-        <v>0.3165180822</v>
+        <v>0</v>
       </c>
       <c r="AZ29">
-        <v>0</v>
+        <v>1.9854668856</v>
       </c>
       <c r="BA29">
-        <v>2.05188413292</v>
+        <v>0</v>
       </c>
       <c r="BB29">
-        <v>2.21508786924</v>
+        <v>0</v>
       </c>
       <c r="BC29">
-        <v>1.47633529548</v>
+        <v>0</v>
       </c>
       <c r="BD29">
-        <v>0.6028269081600001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:56">
       <c r="A30" s="1">
-        <v>0.8999999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="B30">
-        <v>1.68179654148</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1.18511222796</v>
+        <v>0.06585099179999999</v>
       </c>
       <c r="D30">
-        <v>0.74805634668</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1.95633056076</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.60916464536</v>
+        <v>2.79182514624</v>
       </c>
       <c r="G30">
-        <v>1.59856079712</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1.63840159728</v>
+        <v>0.38913703344</v>
       </c>
       <c r="I30">
-        <v>1.3143227094</v>
+        <v>0.4168284552</v>
       </c>
       <c r="J30">
-        <v>2.17661114964</v>
+        <v>0.55138318056</v>
       </c>
       <c r="K30">
-        <v>2.7310518666</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>3.9632462274</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>3.90240706164</v>
+        <v>1.71505724892</v>
       </c>
       <c r="N30">
-        <v>4.26593331384</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>1.2749658486</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>0.9689273106</v>
+        <v>0.27978554688</v>
       </c>
       <c r="Q30">
-        <v>0.5124121767600001</v>
+        <v>0.2286090702</v>
       </c>
       <c r="R30">
-        <v>0.40482589608</v>
+        <v>0.14645012964</v>
       </c>
       <c r="S30">
-        <v>0.4027569834</v>
+        <v>0.2648090952</v>
       </c>
       <c r="T30">
-        <v>0.49082935536</v>
+        <v>0.15010340712</v>
       </c>
       <c r="U30">
-        <v>0.41543953596</v>
+        <v>0.2124351618</v>
       </c>
       <c r="V30">
-        <v>0.55018411956</v>
+        <v>0.15369461556</v>
       </c>
       <c r="W30">
-        <v>0.7320052486800001</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>0.34847074824</v>
+        <v>0.19320332976</v>
       </c>
       <c r="Y30">
-        <v>0.48237496572</v>
+        <v>0.0863459454</v>
       </c>
       <c r="Z30">
-        <v>0.94461959196</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>1.28047201416</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0.40327405944</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.24897092388</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>0.12737994264</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>0.63247333872</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>1.8168050568</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>0.1966886004</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>0.2444532714</v>
+        <v>0</v>
       </c>
       <c r="AI30">
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0.09862455132</v>
+        <v>0</v>
       </c>
       <c r="AK30">
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>0.10844501304</v>
+        <v>0</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -5438,216 +5438,896 @@
         <v>0</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.7347926022000001</v>
       </c>
       <c r="AR30">
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>1.58348941632</v>
       </c>
       <c r="AT30">
         <v>0</v>
       </c>
       <c r="AU30">
-        <v>0</v>
+        <v>5.32742061012</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>1.85582728692</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>0.9955349029199999</v>
       </c>
       <c r="AX30">
-        <v>0</v>
+        <v>0.91706187864</v>
       </c>
       <c r="AY30">
-        <v>0</v>
+        <v>0.3165180822</v>
       </c>
       <c r="AZ30">
-        <v>5.60981692908</v>
+        <v>0</v>
       </c>
       <c r="BA30">
-        <v>1.9961646672</v>
+        <v>2.05188413292</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>2.21508786924</v>
       </c>
       <c r="BC30">
-        <v>2.47689585444</v>
+        <v>1.47633529548</v>
       </c>
       <c r="BD30">
-        <v>0</v>
+        <v>0.6028269081600001</v>
       </c>
     </row>
     <row r="31" spans="1:56">
       <c r="A31" s="1">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="B31">
+        <v>1.68179654148</v>
+      </c>
+      <c r="C31">
+        <v>1.18511222796</v>
+      </c>
+      <c r="D31">
+        <v>0.74805634668</v>
+      </c>
+      <c r="E31">
+        <v>1.95633056076</v>
+      </c>
+      <c r="F31">
+        <v>1.60916464536</v>
+      </c>
+      <c r="G31">
+        <v>1.59856079712</v>
+      </c>
+      <c r="H31">
+        <v>1.63840159728</v>
+      </c>
+      <c r="I31">
+        <v>1.3143227094</v>
+      </c>
+      <c r="J31">
+        <v>2.17661114964</v>
+      </c>
+      <c r="K31">
+        <v>2.7310518666</v>
+      </c>
+      <c r="L31">
+        <v>3.9632462274</v>
+      </c>
+      <c r="M31">
+        <v>3.90240706164</v>
+      </c>
+      <c r="N31">
+        <v>4.26593331384</v>
+      </c>
+      <c r="O31">
+        <v>1.2749658486</v>
+      </c>
+      <c r="P31">
+        <v>0.9689273106</v>
+      </c>
+      <c r="Q31">
+        <v>0.5124121767600001</v>
+      </c>
+      <c r="R31">
+        <v>0.40482589608</v>
+      </c>
+      <c r="S31">
+        <v>0.4027569834</v>
+      </c>
+      <c r="T31">
+        <v>0.49082935536</v>
+      </c>
+      <c r="U31">
+        <v>0.41543953596</v>
+      </c>
+      <c r="V31">
+        <v>0.55018411956</v>
+      </c>
+      <c r="W31">
+        <v>0.7320052486800001</v>
+      </c>
+      <c r="X31">
+        <v>0.34847074824</v>
+      </c>
+      <c r="Y31">
+        <v>0.48237496572</v>
+      </c>
+      <c r="Z31">
+        <v>0.94461959196</v>
+      </c>
+      <c r="AA31">
+        <v>1.28047201416</v>
+      </c>
+      <c r="AB31">
+        <v>0.40327405944</v>
+      </c>
+      <c r="AC31">
+        <v>0.24897092388</v>
+      </c>
+      <c r="AD31">
+        <v>0.12737994264</v>
+      </c>
+      <c r="AE31">
+        <v>0.63247333872</v>
+      </c>
+      <c r="AF31">
+        <v>1.8168050568</v>
+      </c>
+      <c r="AG31">
+        <v>0.1966886004</v>
+      </c>
+      <c r="AH31">
+        <v>0.2444532714</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0.09862455132</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0.10844501304</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>5.60981692908</v>
+      </c>
+      <c r="BA31">
+        <v>1.9961646672</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>2.47689585444</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56">
+      <c r="A32" s="1">
         <v>0.9299999999999999</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>9.293127969</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>6.0384789408</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>10.00558661484</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>7.823745789</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>7.41923505096</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>8.845934144519999</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <v>7.84921561488</v>
       </c>
-      <c r="K31">
+      <c r="K32">
         <v>8.27659287492</v>
       </c>
-      <c r="L31">
+      <c r="L32">
         <v>10.75112424192</v>
       </c>
-      <c r="M31">
+      <c r="M32">
         <v>12.47514438192</v>
       </c>
-      <c r="N31">
+      <c r="N32">
         <v>15.82415041068</v>
       </c>
-      <c r="O31">
+      <c r="O32">
         <v>15.34598380332</v>
       </c>
-      <c r="P31">
+      <c r="P32">
         <v>13.47646658664</v>
       </c>
-      <c r="Q31">
+      <c r="Q32">
         <v>12.05739540192</v>
       </c>
-      <c r="R31">
+      <c r="R32">
         <v>10.37532043488</v>
       </c>
-      <c r="S31">
+      <c r="S32">
         <v>9.84795138972</v>
       </c>
-      <c r="T31">
+      <c r="T32">
         <v>11.26304396004</v>
       </c>
-      <c r="U31">
+      <c r="U32">
         <v>10.60095727212</v>
       </c>
-      <c r="V31">
+      <c r="V32">
         <v>9.363313338120001</v>
       </c>
-      <c r="W31">
+      <c r="W32">
         <v>9.67307286528</v>
       </c>
-      <c r="X31">
+      <c r="X32">
         <v>9.93054591996</v>
       </c>
-      <c r="Y31">
+      <c r="Y32">
         <v>11.2659271278</v>
       </c>
-      <c r="Z31">
+      <c r="Z32">
         <v>10.58452656828</v>
       </c>
-      <c r="AA31">
+      <c r="AA32">
         <v>7.97866651704</v>
       </c>
-      <c r="AB31">
+      <c r="AB32">
         <v>7.30394977524</v>
       </c>
-      <c r="AC31">
+      <c r="AC32">
         <v>7.06688172384</v>
       </c>
-      <c r="AD31">
+      <c r="AD32">
         <v>6.565734524640001</v>
       </c>
-      <c r="AE31">
+      <c r="AE32">
         <v>6.3693390096</v>
       </c>
-      <c r="AF31">
+      <c r="AF32">
         <v>7.05068126184</v>
       </c>
-      <c r="AG31">
+      <c r="AG32">
         <v>6.3356870238</v>
       </c>
-      <c r="AH31">
+      <c r="AH32">
         <v>6.48752913852</v>
       </c>
-      <c r="AI31">
+      <c r="AI32">
         <v>7.5929053866</v>
       </c>
-      <c r="AJ31">
+      <c r="AJ32">
         <v>6.45747605064</v>
       </c>
-      <c r="AK31">
+      <c r="AK32">
         <v>5.97010674</v>
       </c>
-      <c r="AL31">
+      <c r="AL32">
         <v>5.80772312268</v>
       </c>
-      <c r="AM31">
+      <c r="AM32">
         <v>6.91524125052</v>
       </c>
-      <c r="AN31">
+      <c r="AN32">
         <v>5.5245080124</v>
       </c>
-      <c r="AO31">
+      <c r="AO32">
         <v>5.777325833759999</v>
       </c>
-      <c r="AP31">
+      <c r="AP32">
         <v>7.1424990744</v>
       </c>
-      <c r="AQ31">
+      <c r="AQ32">
         <v>11.77165249956</v>
       </c>
-      <c r="AR31">
+      <c r="AR32">
         <v>7.88614791072</v>
       </c>
-      <c r="AS31">
+      <c r="AS32">
         <v>0.32799017784</v>
       </c>
-      <c r="AT31">
+      <c r="AT32">
         <v>9.6004778676</v>
       </c>
-      <c r="AU31">
+      <c r="AU32">
         <v>0.11865879996</v>
       </c>
-      <c r="AV31">
+      <c r="AV32">
         <v>13.6297233444</v>
       </c>
-      <c r="AW31">
+      <c r="AW32">
         <v>13.30036537956</v>
       </c>
-      <c r="AX31">
+      <c r="AX32">
         <v>12.79643840568</v>
       </c>
-      <c r="AY31">
+      <c r="AY32">
         <v>13.72376634864</v>
       </c>
-      <c r="AZ31">
+      <c r="AZ32">
         <v>18.97596536748</v>
       </c>
-      <c r="BA31">
+      <c r="BA32">
         <v>26.12538569304</v>
       </c>
-      <c r="BB31">
+      <c r="BB32">
         <v>25.18607554872</v>
       </c>
-      <c r="BC31">
+      <c r="BC32">
         <v>26.84687864808</v>
       </c>
-      <c r="BD31">
+      <c r="BD32">
         <v>6.14848021608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56">
+      <c r="A33" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56">
+      <c r="A34" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bin_data/Turkish/Turkish44.xlsx
+++ b/Bin_data/Turkish/Turkish44.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5654,6 +5654,11 @@
         <v>0.99</v>
       </c>
     </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
